--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3051546.094507063</v>
+        <v>3155725.728958135</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8342640.505530753</v>
+        <v>8342640.505530752</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>94.48315401756129</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.9897563288632</v>
       </c>
     </row>
     <row r="3">
@@ -817,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>126.2127863329564</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -865,22 +867,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>126.9414517678226</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -902,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>297.998630822261</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>274.3393327866115</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>171.1095341255119</v>
+        <v>141.7312913064998</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,13 +1113,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>107.7713495553426</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>98.55652354719768</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1193,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>3.452930208273647</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>215.284017011239</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1379,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1424,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>100.9025715636457</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1771,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,10 +1821,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>25.7319404949734</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710067</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2017,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2132,10 +2134,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,13 +2250,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>112.528443452332</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>241.8115698409622</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2381,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="G25" t="n">
-        <v>20.88994825141581</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>112.760686031999</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2953,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428269</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>148.8796904206629</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>60.64713141731118</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3275,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3360,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3424,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>95.1271275682428</v>
       </c>
       <c r="D37" t="n">
-        <v>1.25557150216714</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>62.64725059288514</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,10 +3720,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>26.07046444232049</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3898,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3958,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>15.09910835322229</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>46.86766651429448</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1285.591601078695</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1285.591601078695</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1190.154071768027</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4343,7 +4345,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
@@ -4361,19 +4363,19 @@
         <v>3119.628073993394</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993394</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V2" t="n">
-        <v>2788.565186649823</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W2" t="n">
-        <v>2435.796531379709</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="X2" t="n">
-        <v>2062.330773118629</v>
+        <v>2492.63183900615</v>
       </c>
       <c r="Y2" t="n">
-        <v>1672.191441142817</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>460.171619808316</v>
+        <v>1072.884156622247</v>
       </c>
       <c r="C4" t="n">
-        <v>460.171619808316</v>
+        <v>903.9479736943406</v>
       </c>
       <c r="D4" t="n">
-        <v>310.0549803959803</v>
+        <v>753.8313342820048</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>605.9182406996117</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>459.0282932017013</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>291.3254565764203</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
@@ -4513,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1709.240402191655</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1487.473786761181</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U4" t="n">
-        <v>1198.370919886824</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V4" t="n">
-        <v>1198.370919886824</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W4" t="n">
-        <v>908.9537498498635</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="X4" t="n">
-        <v>680.9641989518461</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="Y4" t="n">
-        <v>460.171619808316</v>
+        <v>1072.884156622247</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1938.906022842681</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C5" t="n">
-        <v>1569.94350590227</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D5" t="n">
-        <v>1211.677807295519</v>
+        <v>764.341133147311</v>
       </c>
       <c r="E5" t="n">
-        <v>1211.677807295519</v>
+        <v>378.5528805490667</v>
       </c>
       <c r="F5" t="n">
-        <v>800.6919025059117</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G5" t="n">
-        <v>385.6194523509081</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X5" t="n">
-        <v>2325.505862906803</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y5" t="n">
-        <v>2325.505862906803</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
         <v>1212.42807043813</v>
@@ -4668,28 +4670,28 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>381.6654861422326</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>212.7293032143256</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>212.7293032143256</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1664.626177587928</v>
+        <v>1784.131627576877</v>
       </c>
       <c r="T7" t="n">
-        <v>1442.859562157454</v>
+        <v>1562.365012146403</v>
       </c>
       <c r="U7" t="n">
-        <v>1153.756695283098</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="V7" t="n">
-        <v>899.0722070772106</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="W7" t="n">
-        <v>609.6550370402499</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="X7" t="n">
-        <v>381.6654861422326</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="Y7" t="n">
-        <v>381.6654861422326</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1295.236214140705</v>
+        <v>1285.277735635578</v>
       </c>
       <c r="C8" t="n">
-        <v>1295.236214140705</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="D8" t="n">
-        <v>936.970515533955</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3226.053777622103</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3020.076030006325</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2766.545553280162</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2435.482665936591</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2435.482665936591</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180639</v>
+        <v>2062.016907675511</v>
       </c>
       <c r="Y8" t="n">
-        <v>1681.836054204827</v>
+        <v>1671.877575699699</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4887,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>460.171619808316</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="C10" t="n">
-        <v>460.171619808316</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D10" t="n">
-        <v>310.0549803959803</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1923.806739797307</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1634.703872922951</v>
+        <v>1620.005487804365</v>
       </c>
       <c r="V10" t="n">
-        <v>1380.019384717064</v>
+        <v>1620.005487804365</v>
       </c>
       <c r="W10" t="n">
-        <v>1090.602214680103</v>
+        <v>1330.588317767405</v>
       </c>
       <c r="X10" t="n">
-        <v>862.6126637820859</v>
+        <v>1102.598766869387</v>
       </c>
       <c r="Y10" t="n">
-        <v>641.8200846385557</v>
+        <v>881.8061877258572</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5023,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5036,28 +5038,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>417.9651836029414</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996072</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2443.97263649114</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5242,7 +5244,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="14">
@@ -5276,10 +5278,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5504,16 +5506,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5522,7 +5524,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5540,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5701,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5832,25 +5834,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3227.225672628157</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C22" t="n">
-        <v>3058.28948970025</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>2908.172850287915</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>2760.259756705521</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>2646.594662309226</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024106</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4690.833152398593</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4401.757925742791</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>4147.073437536905</v>
+        <v>1444.131742904239</v>
       </c>
       <c r="W22" t="n">
-        <v>3857.656267499944</v>
+        <v>1154.714572867279</v>
       </c>
       <c r="X22" t="n">
-        <v>3629.666716601927</v>
+        <v>926.7250219692613</v>
       </c>
       <c r="Y22" t="n">
-        <v>3408.874137458397</v>
+        <v>705.9324428257312</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6029,7 +6031,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6075,19 +6077,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E25" t="n">
-        <v>197.0043242297712</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F25" t="n">
-        <v>197.0043242297712</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,25 +6247,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591808</v>
@@ -6297,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3966.646661122954</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3677.229491085994</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3563.329808225389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3342.537229081859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2757.723669558405</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C31" t="n">
-        <v>2588.787486630498</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D31" t="n">
-        <v>2588.787486630498</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>2588.787486630498</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>2588.787486630498</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2421.591387345378</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>2046.67901981013</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1757.603793154328</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1502.919304948441</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430192</v>
+        <v>1213.50213491148</v>
       </c>
       <c r="X31" t="n">
-        <v>3160.164713532175</v>
+        <v>985.5125840134626</v>
       </c>
       <c r="Y31" t="n">
-        <v>2939.372134388645</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6731,16 +6733,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,25 +6779,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048574</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>444.7013164925216</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E34" t="n">
-        <v>296.7882229101285</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>196.5408620426154</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,55 +6925,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192832</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111739</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075831</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>802.9288273958734</v>
+        <v>2824.769373306002</v>
       </c>
       <c r="C37" t="n">
-        <v>633.9926444679666</v>
+        <v>2728.681365661312</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253735</v>
+        <v>2728.681365661312</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661312</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661312</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578603</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>4507.978318053497</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>4288.376853076438</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>3999.301626420636</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304621</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.359422267661</v>
+        <v>3455.199968177789</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.369871369643</v>
+        <v>3227.210417279772</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.5772922261132</v>
+        <v>3006.417838136242</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7181,10 +7183,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,31 +7195,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>244.2098454714574</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>739.5354516872161</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>699.2677182139842</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>530.3315352860773</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>530.3315352860773</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7366,16 +7368,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7491,16 +7493,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>634.5603720565526</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>1231.938859683105</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7606,13 +7608,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1418.449741049605</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1190.460190151587</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>969.6676110080573</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,19 +7636,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -23416,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>66.34424953498214</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>260.4525338942707</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23941,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>32.89260457059922</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>10.32607348286584</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="G25" t="n">
-        <v>144.634190040853</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>112.9489693570382</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219412</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>68.52575990662532</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>84.77391660562006</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>38.5977558415268</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>72.11969353038504</v>
       </c>
       <c r="D37" t="n">
-        <v>147.3599015160452</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>117.1847295890522</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>260.4525338942705</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>271.4238899833687</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>98.55338150863676</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>718452.1540290017</v>
+        <v>718452.1540290018</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>718452.1540290018</v>
+        <v>718452.1540290017</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>718452.1540290018</v>
+        <v>718452.1540290017</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>718452.1540290017</v>
+        <v>718452.1540290018</v>
       </c>
     </row>
     <row r="15">
@@ -26314,46 +26316,46 @@
         <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
+        <v>718411.5486312479</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312481</v>
       </c>
-      <c r="D2" t="n">
-        <v>718411.5486312479</v>
-      </c>
       <c r="E2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287558</v>
       </c>
       <c r="H2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="J2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="K2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="M2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="N2" t="n">
         <v>706253.2747287551</v>
       </c>
-      <c r="K2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287552</v>
-      </c>
       <c r="O2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551156</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818167</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818166</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26430,7 +26432,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="H4" t="n">
         <v>12996.86414683044</v>
@@ -26439,19 +26441,19 @@
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683039</v>
+        <v>12996.86414683049</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468305</v>
       </c>
       <c r="O4" t="n">
         <v>12996.86414683044</v>
@@ -26522,31 +26524,31 @@
         <v>-810451.0365759197</v>
       </c>
       <c r="C6" t="n">
-        <v>518293.7091516731</v>
+        <v>518293.7091516728</v>
       </c>
       <c r="D6" t="n">
-        <v>518293.7091516729</v>
+        <v>518293.7091516734</v>
       </c>
       <c r="E6" t="n">
-        <v>266721.4189506626</v>
+        <v>266721.4189506629</v>
       </c>
       <c r="F6" t="n">
-        <v>592133.8807580178</v>
+        <v>592133.880758018</v>
       </c>
       <c r="G6" t="n">
-        <v>592133.8807580181</v>
+        <v>592133.8807580182</v>
       </c>
       <c r="H6" t="n">
         <v>592133.8807580179</v>
       </c>
       <c r="I6" t="n">
-        <v>592133.8807580178</v>
+        <v>592133.8807580181</v>
       </c>
       <c r="J6" t="n">
-        <v>374602.6783607401</v>
+        <v>374602.6783607407</v>
       </c>
       <c r="K6" t="n">
-        <v>592133.880758018</v>
+        <v>592133.8807580182</v>
       </c>
       <c r="L6" t="n">
         <v>592133.8807580179</v>
@@ -26555,13 +26557,13 @@
         <v>507078.8528225063</v>
       </c>
       <c r="N6" t="n">
-        <v>592133.8807580178</v>
+        <v>592133.8807580174</v>
       </c>
       <c r="O6" t="n">
-        <v>592133.8807580178</v>
+        <v>592133.8807580181</v>
       </c>
       <c r="P6" t="n">
-        <v>592133.8807580182</v>
+        <v>592133.8807580181</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26792,10 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26960,7 +26962,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>260.1998876031217</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>240.2481823271904</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27539,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>18.54222858136443</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,22 +27587,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>62.82757356361932</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27622,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>108.8774149194504</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>20.26843160070894</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27679,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>18.65949120592998</v>
+        <v>48.03773402494207</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,13 +27833,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>274.1590205169192</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>10.63123824097815</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28022,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>216.0960190678956</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>70.92782119437388</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28564,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -29338,7 +29340,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -30046,7 +30048,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30238,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31276,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31610,7 +31612,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837925</v>
@@ -31835,19 +31837,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>312.3207226334981</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31859,10 +31861,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32309,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32318,25 +32320,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32473,7 +32475,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -32552,28 +32554,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32795,7 +32797,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,13 +32806,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>436.4492970000073</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,7 +33031,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>295.9743940159484</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33202,7 +33204,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33257,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,16 +33271,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>409.0029787211721</v>
+        <v>613.2529048371032</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33497,7 +33499,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
@@ -33509,7 +33511,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,7 +33520,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>364.3208035245835</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33646,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067255</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,37 +33736,37 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>620.1193660647498</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33974,13 +33976,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>138.5955196772184</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,10 +33991,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34153,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34211,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>533.6019216797995</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34363,13 +34365,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,19 +34459,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>658.2124561388958</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35258,7 +35260,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004592</v>
@@ -35483,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35507,10 +35509,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,7 +36123,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36200,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36443,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,13 +36454,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>302.474889585677</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,7 +36679,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>161.9999866016181</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36850,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,16 +36919,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>266.8689447991538</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37157,7 +37159,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,7 +37168,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>224.339029438562</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37300,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236319604</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>477.9853321427315</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,7 +37554,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37622,13 +37624,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0.7540807028594299</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,10 +37639,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,19 +37861,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>395.0475418999253</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38011,13 +38013,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>526.8707440555626</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3155725.728958135</v>
+        <v>3151713.118944143</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>329.9564011125121</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.9897563288632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>126.2127863329564</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>203.1977700471489</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>19.68942351146622</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>297.998630822261</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>141.7312913064998</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>61.42978662487853</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>98.55652354719768</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>274.7944255145766</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>215.284017011239</v>
+        <v>19.58945082857502</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>100.9025715636457</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>28.42659968729146</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>25.7319404949734</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710067</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>241.8115698409622</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>148.8796904206629</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>101.6969570046971</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624841</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>95.1271275682428</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>70.58974991479249</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>26.07046444232049</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>46.86766651429448</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1565.440264581601</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1565.440264581601</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1565.440264581601</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.09759726723</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V2" t="n">
-        <v>2866.09759726723</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W2" t="n">
-        <v>2866.09759726723</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X2" t="n">
-        <v>2492.63183900615</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.167438673965</v>
+        <v>1952.040104645723</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4412,43 +4412,43 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1072.884156622247</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>903.9479736943406</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>753.8313342820048</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>605.9182406996117</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>459.0282932017013</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>291.3254565764203</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1548.361223971664</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V4" t="n">
-        <v>1293.676735765777</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W4" t="n">
-        <v>1293.676735765777</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>1293.676735765777</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>1072.884156622247</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.569348694473</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.606831754061</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>764.341133147311</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>378.5528805490667</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678287</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995486</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734407</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.169188758595</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="6">
@@ -4637,37 +4637,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1784.131627576877</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1562.365012146403</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1273.262145272047</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1273.262145272047</v>
+        <v>1865.244258568413</v>
       </c>
       <c r="W7" t="n">
-        <v>1273.262145272047</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X7" t="n">
-        <v>1273.262145272047</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1285.277735635578</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>916.3152186951659</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810557</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3226.053777622103</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3020.076030006325</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2766.545553280162</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2435.482665936591</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.482665936591</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.016907675511</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="Y8" t="n">
-        <v>1671.877575699699</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>700.1577228956174</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>531.2215399677106</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>381.1049005553748</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1620.005487804365</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="V10" t="n">
-        <v>1620.005487804365</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="W10" t="n">
-        <v>1330.588317767405</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="X10" t="n">
-        <v>1102.598766869387</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y10" t="n">
-        <v>881.8061877258572</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5023,10 +5023,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5038,28 +5038,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>417.9651836029414</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>913.2907898187001</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898187001</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.6461798836013</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7243904253734</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5244,7 +5244,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138411</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="14">
@@ -5269,58 +5269,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192741</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5427,13 +5427,13 @@
         <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5463,13 +5463,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>2018.514925172274</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
         <v>2018.514925172274</v>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5509,58 +5509,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5606,13 +5606,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2223.769289033212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,31 +5770,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1444.131742904239</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1154.714572867279</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>926.7250219692613</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>705.9324428257312</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5980,58 +5980,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6205,70 +6205,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2046.67901981013</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1757.603793154328</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1502.919304948441</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1213.50213491148</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>985.5125840134626</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400712</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>363.7369613277355</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>363.7369613277355</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>363.7369613277355</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>196.5408620426154</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6964,22 +6964,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143764</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2824.769373306002</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>2728.681365661312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>2728.681365661312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>2728.681365661312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376192</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053497</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.376853076438</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>3999.301626420636</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>3744.61713821475</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>3455.199968177789</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>3227.210417279772</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>3006.417838136242</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7159,40 +7159,40 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819236</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111692</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075785</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852254</v>
@@ -7204,7 +7204,7 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466572</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>414.4022433768879</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>414.4022433768879</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>414.4022433768879</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>247.2061440917678</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000582</v>
@@ -7335,49 +7335,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>1755.431557602304</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="41">
@@ -7405,28 +7405,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>430.7826650753331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>282.8695714929399</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>66.34424953498214</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>190.1580536648033</v>
       </c>
     </row>
     <row r="14">
@@ -23703,16 +23703,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>260.4525338942707</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>117.6820817884486</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>10.32607348286584</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>144.5956654067404</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>68.52575990662532</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>38.5977558415268</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>72.11969353038504</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25557,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>69.70496293143137</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>260.4525338942705</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>121.5862749664513</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>98.55338150863676</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312479</v>
+      </c>
+      <c r="C2" t="n">
+        <v>718411.5486312481</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312478</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312479</v>
-      </c>
-      <c r="D2" t="n">
-        <v>718411.5486312481</v>
-      </c>
       <c r="E2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="F2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287558</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="I2" t="n">
         <v>706253.2747287556</v>
@@ -26340,16 +26340,16 @@
         <v>706253.2747287557</v>
       </c>
       <c r="K2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="M2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="N2" t="n">
         <v>706253.2747287557</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287551</v>
       </c>
       <c r="O2" t="n">
         <v>706253.2747287556</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551156</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818176</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818166</v>
+        <v>92183.89891818177</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26432,7 +26432,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
         <v>12996.86414683044</v>
@@ -26441,7 +26441,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683039</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
@@ -26450,10 +26450,10 @@
         <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.8641468305</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
         <v>12996.86414683044</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-810451.0365759197</v>
+        <v>-810451.0365759195</v>
       </c>
       <c r="C6" t="n">
+        <v>518293.709151673</v>
+      </c>
+      <c r="D6" t="n">
         <v>518293.7091516728</v>
       </c>
-      <c r="D6" t="n">
-        <v>518293.7091516734</v>
-      </c>
       <c r="E6" t="n">
-        <v>266721.4189506629</v>
+        <v>266374.0396963056</v>
       </c>
       <c r="F6" t="n">
-        <v>592133.880758018</v>
+        <v>591786.501503661</v>
       </c>
       <c r="G6" t="n">
-        <v>592133.8807580182</v>
+        <v>591786.501503661</v>
       </c>
       <c r="H6" t="n">
-        <v>592133.8807580179</v>
+        <v>591786.501503661</v>
       </c>
       <c r="I6" t="n">
-        <v>592133.8807580181</v>
+        <v>591786.501503661</v>
       </c>
       <c r="J6" t="n">
-        <v>374602.6783607407</v>
+        <v>374255.2991063838</v>
       </c>
       <c r="K6" t="n">
-        <v>592133.8807580182</v>
+        <v>591786.5015036612</v>
       </c>
       <c r="L6" t="n">
-        <v>592133.8807580179</v>
+        <v>591786.501503661</v>
       </c>
       <c r="M6" t="n">
-        <v>507078.8528225063</v>
+        <v>506731.4735681491</v>
       </c>
       <c r="N6" t="n">
-        <v>592133.8807580174</v>
+        <v>591786.5015036613</v>
       </c>
       <c r="O6" t="n">
-        <v>592133.8807580181</v>
+        <v>591786.5015036612</v>
       </c>
       <c r="P6" t="n">
-        <v>592133.8807580181</v>
+        <v>591786.5015036612</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26962,20 +26962,20 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483757</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483754</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>51.97396895974964</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>240.2481823271904</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>18.54222858136443</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,16 +27593,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>83.32522828944209</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>345.5834682595413</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>108.8774149194504</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>48.03773402494207</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>190.7078566989495</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>10.63123824097815</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>111.443513141477</v>
       </c>
     </row>
     <row r="9">
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>70.92782119437388</v>
+        <v>266.6223873770379</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -29340,7 +29340,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -30048,7 +30048,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,13 +31837,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>312.3207226334981</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31858,13 +31858,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31995,7 +31995,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067246</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32092,16 +32092,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>271.1474903386692</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>466.5925882502527</v>
+        <v>154.5219885631796</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,16 +32575,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>436.4492970000073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>295.9743940159484</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2529048371032</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>364.3208035245835</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565771</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,46 +33809,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067208</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>174.4792836591391</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35506,13 +35506,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318714</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35740,16 +35740,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>128.5512458942248</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>332.6181808359224</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>302.474889585677</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>161.9999866016181</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>471.1188709150848</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121327</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236314895</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3151713.118944143</v>
+        <v>3153473.649246927</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>242.6337954275707</v>
       </c>
       <c r="E2" t="n">
-        <v>329.9564011125121</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292598</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>370.0648965483574</v>
       </c>
       <c r="C5" t="n">
-        <v>19.68942351146622</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>61.42978662487896</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>61.42978662487853</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.7944255145766</v>
+        <v>274.7944255145775</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1311,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>19.58945082857502</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>19.58945082857547</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>45.17596778974989</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>28.42659968729146</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>31.26260713376574</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E19" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2146,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428212</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>68.17501931583776</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3201,10 +3201,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>91.89996056624841</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673023</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
-        <v>70.58974991479249</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>64.91921363453586</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053464</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4312,16 +4312,16 @@
         <v>1565.440264581601</v>
       </c>
       <c r="D2" t="n">
-        <v>1565.440264581601</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4330,25 +4330,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1698.509627919559</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
         <v>934.5673701373257</v>
@@ -4567,7 +4567,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4579,7 +4579,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4612,7 +4612,7 @@
         <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.509627919559</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="6">
@@ -4637,10 +4637,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4649,10 +4649,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>945.3964936596652</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C7" t="n">
-        <v>776.4603107317583</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
@@ -4725,16 +4725,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1865.244258568413</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>1575.827088531452</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X7" t="n">
-        <v>1347.837537633435</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y7" t="n">
-        <v>1127.044958489905</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="8">
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,19 +4834,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="Y8" t="n">
         <v>2731.767278738087</v>
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4959,19 +4959,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,10 +4983,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
         <v>1735.608663915319</v>
@@ -4995,13 +4995,13 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1494.054724415577</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V10" t="n">
-        <v>1494.054724415577</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W10" t="n">
-        <v>1494.054724415577</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="X10" t="n">
         <v>1494.054724415577</v>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5035,28 +5035,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5129,13 +5129,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>705.9324428257312</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2334.285089135946</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>887.5809076559709</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5260,67 +5260,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P15" t="n">
         <v>2516.421633107662</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5466,22 +5466,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5606,13 +5606,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400717</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,31 +5770,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5983,55 +5983,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6205,70 +6205,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6317,7 +6317,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6554,7 +6554,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2171.280006238955</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583153</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,28 +7171,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819236</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111692</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075785</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852254</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7262,10 +7262,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>733.4550657171305</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>564.5188827892237</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>414.4022433768879</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>414.4022433768879</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>414.4022433768879</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>247.2061440917678</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797186</v>
@@ -7335,49 +7335,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>853.5941094450255</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>703.4774700326898</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>555.5643764502967</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>408.6744289523863</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>241.4783296672662</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="44">
@@ -7645,22 +7645,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>172.2294825375384</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>190.1580536648033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>186.1428431935225</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E19" t="n">
-        <v>117.6820817884486</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194174</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>72.11969353038613</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>125.5054897610399</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194188</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H40" t="n">
-        <v>69.70496293143137</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>75.37549921168802</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194191</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>718452.1540290017</v>
+        <v>718452.1540290018</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>718452.1540290017</v>
+        <v>718452.1540290018</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>718452.1540290018</v>
+        <v>718452.1540290017</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>718452.1540290017</v>
+        <v>718452.1540290018</v>
       </c>
     </row>
     <row r="16">
@@ -26319,43 +26319,43 @@
         <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="G2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="F2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>706253.2747287557</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.2747287556</v>
       </c>
       <c r="I2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="K2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="M2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287552</v>
       </c>
     </row>
     <row r="3">
@@ -26368,19 +26368,19 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>92183.89891818176</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818177</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="F4" t="n">
         <v>12996.86414683044</v>
@@ -26441,7 +26441,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683039</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
@@ -26453,7 +26453,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683047</v>
       </c>
       <c r="O4" t="n">
         <v>12996.86414683044</v>
@@ -26524,46 +26524,46 @@
         <v>-810451.0365759195</v>
       </c>
       <c r="C6" t="n">
+        <v>518293.7091516728</v>
+      </c>
+      <c r="D6" t="n">
         <v>518293.709151673</v>
       </c>
-      <c r="D6" t="n">
-        <v>518293.7091516728</v>
-      </c>
       <c r="E6" t="n">
-        <v>266374.0396963056</v>
+        <v>266686.6810252272</v>
       </c>
       <c r="F6" t="n">
-        <v>591786.501503661</v>
+        <v>592099.1428325822</v>
       </c>
       <c r="G6" t="n">
-        <v>591786.501503661</v>
+        <v>592099.1428325824</v>
       </c>
       <c r="H6" t="n">
-        <v>591786.501503661</v>
+        <v>592099.1428325826</v>
       </c>
       <c r="I6" t="n">
-        <v>591786.501503661</v>
+        <v>592099.1428325825</v>
       </c>
       <c r="J6" t="n">
-        <v>374255.2991063838</v>
+        <v>374567.9404353048</v>
       </c>
       <c r="K6" t="n">
-        <v>591786.5015036612</v>
+        <v>592099.1428325824</v>
       </c>
       <c r="L6" t="n">
-        <v>591786.501503661</v>
+        <v>592099.1428325822</v>
       </c>
       <c r="M6" t="n">
-        <v>506731.4735681491</v>
+        <v>507044.1148970703</v>
       </c>
       <c r="N6" t="n">
-        <v>591786.5015036613</v>
+        <v>592099.1428325822</v>
       </c>
       <c r="O6" t="n">
-        <v>591786.5015036612</v>
+        <v>592099.1428325822</v>
       </c>
       <c r="P6" t="n">
-        <v>591786.5015036612</v>
+        <v>592099.1428325821</v>
       </c>
     </row>
   </sheetData>
@@ -26795,25 +26795,25 @@
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26962,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>112.0492461931123</v>
       </c>
       <c r="E2" t="n">
-        <v>51.97396895974964</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>12.66894511512317</v>
       </c>
       <c r="C5" t="n">
-        <v>345.5834682595413</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>83.32522828944182</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>190.7078566989495</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>111.443513141477</v>
+        <v>111.4435131414761</v>
       </c>
     </row>
     <row r="9">
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>266.6223873770379</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>206.1202045604617</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31849,16 +31849,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31995,13 +31995,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L14" t="n">
         <v>867.846407116256</v>
@@ -32080,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32092,10 +32092,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>271.1474903386692</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>154.5219885631796</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067208</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35643,13 +35643,13 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
@@ -35728,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35740,10 +35740,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>128.5512458942248</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236314895</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
